--- a/biology/Mycologie/Atheliaceae/Atheliaceae.xlsx
+++ b/biology/Mycologie/Atheliaceae/Atheliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Atheliaceae est une famille de champignons basidiomycètes de l’ordre des Atheliales. 
-Selon une estimation de 2008, la famille comprend 22 genres et 106 espèces[1].
+Selon une estimation de 2008, la famille comprend 22 genres et 106 espèces.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces et genres de la famille des  Atheliaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Genre Amphinema
@@ -658,9 +672,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 mai 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 mai 2013) :
 genre Amphinema
 genre Athelia
 genre Athelicium
@@ -683,7 +699,7 @@
 genre Pteridomyces
 genre Taeniospora
 genre Tylospora
-Selon NCBI  (26 mai 2013)[3] :
+Selon NCBI  (26 mai 2013) :
 genre Amphinema
 genre Athelia
 genre Athelidium
